--- a/raw_data/raw_artificial_dat/transaction_log_1.xlsx
+++ b/raw_data/raw_artificial_dat/transaction_log_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duke\Lectures\02_IDS_706_DATA_ENGINEERING\group_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D89A7E3-0A93-4F4A-884D-E30DDFB7A15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BCEA53-8440-4115-A6D2-45EB9305D782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="13">
   <si>
     <t>order_id</t>
   </si>
@@ -79,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -131,7 +131,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -140,6 +140,23 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -169,23 +186,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -200,13 +200,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4040E2B7-9FAF-41B3-9A04-5765BAA248BB}" name="Table1" displayName="Table1" ref="A1:G81" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4040E2B7-9FAF-41B3-9A04-5765BAA248BB}" name="Table1" displayName="Table1" ref="A1:G92" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G81">
     <sortCondition ref="A1:A81"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{39C852D2-6D58-453A-9C4C-00C3B9B1405E}" name="order_id"/>
-    <tableColumn id="2" xr3:uid="{94A6213C-103D-4EBE-855D-92FEDDB06B4C}" name="transaction_date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{94A6213C-103D-4EBE-855D-92FEDDB06B4C}" name="transaction_date" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{6D5F56FA-A670-4092-929C-A953289CCCAD}" name="customer_id"/>
     <tableColumn id="4" xr3:uid="{4FEE8E11-0F27-4AD1-92DD-78FB187E7EC2}" name="vendor_id"/>
     <tableColumn id="5" xr3:uid="{7A561225-E65A-4B51-8F24-7AD0233AD8E9}" name="cup_id"/>
@@ -502,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2381,6 +2381,259 @@
         <v>0</v>
       </c>
     </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>181</v>
+      </c>
+      <c r="B82" s="1">
+        <v>44898.708333333336</v>
+      </c>
+      <c r="C82">
+        <v>14020</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82">
+        <v>989958</v>
+      </c>
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>182</v>
+      </c>
+      <c r="B83" s="1">
+        <v>44898.708333333336</v>
+      </c>
+      <c r="C83">
+        <v>14021</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83">
+        <v>989961</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>183</v>
+      </c>
+      <c r="B84" s="1">
+        <v>44900.625</v>
+      </c>
+      <c r="C84">
+        <v>14022</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84">
+        <v>989960</v>
+      </c>
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>184</v>
+      </c>
+      <c r="B85" s="1">
+        <v>44900.708333333336</v>
+      </c>
+      <c r="C85">
+        <v>14023</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85">
+        <v>989963</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>185</v>
+      </c>
+      <c r="B86" s="1">
+        <v>44900.791666666664</v>
+      </c>
+      <c r="C86">
+        <v>14024</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86">
+        <v>989959</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>186</v>
+      </c>
+      <c r="B87" s="1">
+        <v>44902.541666666664</v>
+      </c>
+      <c r="C87">
+        <v>14025</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87">
+        <v>989962</v>
+      </c>
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>187</v>
+      </c>
+      <c r="B88" s="1">
+        <v>44902.770833333336</v>
+      </c>
+      <c r="C88">
+        <v>14026</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88">
+        <v>989965</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>188</v>
+      </c>
+      <c r="B89" s="1">
+        <v>44902.791666666664</v>
+      </c>
+      <c r="C89">
+        <v>14027</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>989974</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>189</v>
+      </c>
+      <c r="B90" s="1">
+        <v>44904.583333333336</v>
+      </c>
+      <c r="C90">
+        <v>14028</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>989964</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>190</v>
+      </c>
+      <c r="B91" s="1">
+        <v>44904.645833333336</v>
+      </c>
+      <c r="C91">
+        <v>14029</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>989966</v>
+      </c>
+      <c r="F91" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>191</v>
+      </c>
+      <c r="B92" s="1">
+        <v>44904.708333333336</v>
+      </c>
+      <c r="C92">
+        <v>14030</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92">
+        <v>989967</v>
+      </c>
+      <c r="F92" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
